--- a/MyCProgram/近期工作/数据库/web数据库表.xlsx
+++ b/MyCProgram/近期工作/数据库/web数据库表.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>et_tabcustom</t>
   </si>
@@ -83,6 +83,14 @@
   </si>
   <si>
     <t>SNS-发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B9"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -425,6 +433,14 @@
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
